--- a/src/test/resources/TestData/ProgramTestsData.xlsx
+++ b/src/test/resources/TestData/ProgramTestsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Keertana SDET Course\workspace\Team1_APIPros_RestAssured\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535ACCC-A070-41B5-AA32-DE3E0DEEE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3CF61-48B3-425B-A237-3E9512AF8F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2325" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -115,10 +115,10 @@
     <t>SDET Testing Upate Program Name</t>
   </si>
   <si>
-    <t>DA4000</t>
+    <t>TIM12</t>
   </si>
   <si>
-    <t>DA4001</t>
+    <t>DA40024</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1741,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28205C9E-7FB3-4F71-8AB1-E5ED793AD4C9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1819,7 +1819,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C360D48-D7FD-458E-A59A-81261386940D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
